--- a/_project_docs/SSE19_RD_USS.xlsx
+++ b/_project_docs/SSE19_RD_USS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\workplace\smartse19\_project_docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3826389-8EF4-4FF6-8B1D-5822728428DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A913ACD-059D-41D4-90E6-075EE0E7A489}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4905" yWindow="1800" windowWidth="20820" windowHeight="11835" activeTab="3" xr2:uid="{A084708E-82A9-4969-86C5-C56BE0E1383A}"/>
+    <workbookView xWindow="-22065" yWindow="-5205" windowWidth="20820" windowHeight="11835" activeTab="3" xr2:uid="{A084708E-82A9-4969-86C5-C56BE0E1383A}"/>
   </bookViews>
   <sheets>
     <sheet name="UC-01" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="123">
   <si>
     <t>ユースケースID</t>
     <phoneticPr fontId="0"/>
@@ -517,9 +517,6 @@
     <t>対象月ごとに、ドキュメントの作業状況を、確認する。</t>
   </si>
   <si>
-    <t>あるドキュメントごとに、コメントを入力する。</t>
-  </si>
-  <si>
     <t>PC作業に集中しすぎて、効率が下がるのを防ぐ</t>
   </si>
   <si>
@@ -544,6 +541,64 @@
   </si>
   <si>
     <t>仕事、生活、睡眠などの行動時間が見える</t>
+  </si>
+  <si>
+    <t>対象ドキュメントごとに、コメントを入力する。</t>
+  </si>
+  <si>
+    <t>5.3.</t>
+  </si>
+  <si>
+    <t>プロジェクトのドキュメントに対して、進度ステータスを設定する。</t>
+  </si>
+  <si>
+    <t>　進度は、0%-10%-40%-80%-90%-100%等を設定可能とする。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ワーカが、仕事や生活をしている状況を、分かるようにする。目的は、仕事と生活の所要時間を認識するためである。睡眠時間の確保を推奨するため、睡眠時間も分かるようにする。取得するタスクの情報は以下。
+１）タスク時間（開始時刻～終了時刻と所要時間）
+２）対象タスク
+　　－通勤（Walk, Running, Cycling, Transportation）
+　　－睡眠（Sleep）
+　　－休憩（Restroom）
+　　－仕事（PC作業中、PC Off、PC作業中でない）
+</t>
+  </si>
+  <si>
+    <t>Smartphone, Smartband, PC Monitoring Tool, Motion Sensing, IT Engineer(作業者), データ集約</t>
+  </si>
+  <si>
+    <t>Smartphoneを随時持ち歩いて生活する
+睡眠時にSmartbandを着用する
+Motion Sensorのある休憩室にて休憩する
+PCを使って作業を実施する</t>
+  </si>
+  <si>
+    <t>生活の中でセンサーにより、センシングデータを取得する。</t>
+  </si>
+  <si>
+    <t>取得したセンシングデータを、必要な形式に変更する。</t>
+  </si>
+  <si>
+    <t>- イベントデータ　（タスクの開始・終了・所要時間とその状態を記録した情報）</t>
+  </si>
+  <si>
+    <t>項番4のデータをもとに、対象日ごとに、作業者の生活状況を、確認する。</t>
+  </si>
+  <si>
+    <t>　当日の生活状況、昨日の生活状況、一昨日の生活状況には簡易にアクセス可能とする。</t>
+  </si>
+  <si>
+    <t>対象日の午前(morning)、午後(afternoon)、夜(evening)、夜間(night)ごとに確認する。</t>
+  </si>
+  <si>
+    <t>対象週ごとに、対象者の生活状況を、確認する。</t>
+  </si>
+  <si>
+    <t>ある対象のイベントごとに、コメントを入力する。</t>
+  </si>
+  <si>
+    <t>ある対象のイベントのイベント名、開始・終了時刻を、手動で変更する。</t>
   </si>
 </sst>
 </file>
@@ -800,48 +855,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -850,9 +863,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
@@ -878,11 +888,63 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -5915,8 +5977,8 @@
   </sheetPr>
   <dimension ref="A4:G59"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5934,126 +5996,126 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18" t="str" cm="1">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">MID(CELL("filename",D4),FIND("]",CELL("filename",D4))+1,31)</f>
         <v>UC-01</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="19"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
     </row>
     <row r="6" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="19"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -6062,19 +6124,19 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20">
+      <c r="A14" s="32">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
@@ -6083,392 +6145,392 @@
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="5" t="s">
         <v>31</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="5" t="s">
         <v>32</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="18" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="32" t="s">
+      <c r="E18" s="26"/>
+      <c r="F18" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E19" s="41"/>
+      <c r="E19" s="26"/>
       <c r="F19" s="5" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="32" t="s">
+      <c r="E20" s="26"/>
+      <c r="F20" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="32" t="s">
+      <c r="E21" s="26"/>
+      <c r="F21" s="18" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="32" t="s">
+      <c r="E22" s="26"/>
+      <c r="F22" s="18" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="32" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="18" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E24" s="41"/>
+      <c r="E24" s="26"/>
       <c r="F24" s="5" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="18" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="18" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="32" t="s">
+      <c r="E27" s="26"/>
+      <c r="F27" s="18" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="29"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="36"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="32" t="s">
+      <c r="E28" s="26"/>
+      <c r="F28" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="32" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="18" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E30" s="41"/>
+      <c r="E30" s="26"/>
       <c r="F30" s="5" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="32" t="s">
+      <c r="E31" s="26"/>
+      <c r="F31" s="18" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="5" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="29"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="36"/>
       <c r="D33" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="32" t="s">
+      <c r="E33" s="26"/>
+      <c r="F33" s="18" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="29"/>
+      <c r="A34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="36"/>
       <c r="D34" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="32" t="s">
+      <c r="E34" s="26"/>
+      <c r="F34" s="18" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="33" t="s">
+      <c r="E35" s="26"/>
+      <c r="F35" s="19" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="32" t="s">
+      <c r="E36" s="26"/>
+      <c r="F36" s="18" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="36"/>
       <c r="D37" s="6"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="33" t="s">
+      <c r="E37" s="26"/>
+      <c r="F37" s="19" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="29"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="36"/>
       <c r="D38" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="32" t="s">
+      <c r="E38" s="26"/>
+      <c r="F38" s="18" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="29"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="36"/>
       <c r="D39" s="6"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="33" t="s">
+      <c r="E39" s="26"/>
+      <c r="F39" s="19" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="36"/>
       <c r="D40" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="33" t="s">
+      <c r="E40" s="26"/>
+      <c r="F40" s="19" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="36"/>
       <c r="D41" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="33" t="s">
+      <c r="E41" s="26"/>
+      <c r="F41" s="19" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="36"/>
       <c r="D42" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="33" t="s">
+      <c r="E42" s="26"/>
+      <c r="F42" s="19" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="29"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="36"/>
       <c r="D43" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="E43" s="41" t="s">
+      <c r="E43" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F43" s="32" t="s">
+      <c r="F43" s="18" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="29"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="34"/>
+      <c r="C44" s="36"/>
       <c r="D44" s="6"/>
-      <c r="E44" s="41"/>
+      <c r="E44" s="26"/>
       <c r="F44" s="5"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="30"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="37"/>
       <c r="D45" s="6"/>
-      <c r="E45" s="41"/>
+      <c r="E45" s="26"/>
       <c r="F45" s="7"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="28" t="s">
+      <c r="A46" s="32"/>
+      <c r="B46" s="34"/>
+      <c r="C46" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D46" s="31" t="s">
+      <c r="D46" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="E46" s="37"/>
+      <c r="E46" s="22"/>
       <c r="F46" s="2" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="29"/>
+      <c r="A47" s="32"/>
+      <c r="B47" s="34"/>
+      <c r="C47" s="36"/>
       <c r="D47" s="6"/>
-      <c r="E47" s="38"/>
+      <c r="E47" s="23"/>
       <c r="F47" s="5"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="29"/>
+      <c r="A48" s="32"/>
+      <c r="B48" s="34"/>
+      <c r="C48" s="36"/>
       <c r="D48" s="6"/>
-      <c r="E48" s="38"/>
+      <c r="E48" s="23"/>
       <c r="F48" s="5"/>
     </row>
     <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="30"/>
+      <c r="A49" s="32"/>
+      <c r="B49" s="34"/>
+      <c r="C49" s="37"/>
       <c r="D49" s="8"/>
-      <c r="E49" s="39"/>
+      <c r="E49" s="24"/>
       <c r="F49" s="7"/>
     </row>
     <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="27"/>
+      <c r="A50" s="33"/>
+      <c r="B50" s="35"/>
       <c r="C50" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D50" s="4"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="42" t="s">
+      <c r="E50" s="20"/>
+      <c r="F50" s="27" t="s">
         <v>70</v>
       </c>
     </row>
@@ -6476,123 +6538,100 @@
       <c r="A51" s="12">
         <v>11</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="19"/>
+      <c r="C51" s="39"/>
+      <c r="D51" s="29"/>
+      <c r="E51" s="30"/>
+      <c r="F51" s="31"/>
     </row>
     <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="20">
+      <c r="A52" s="32">
         <v>12</v>
       </c>
-      <c r="B52" s="22" t="s">
+      <c r="B52" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C52" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="19"/>
+      <c r="D52" s="29"/>
+      <c r="E52" s="30"/>
+      <c r="F52" s="31"/>
     </row>
     <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
+      <c r="A53" s="32"/>
+      <c r="B53" s="41"/>
       <c r="C53" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="19"/>
+      <c r="D53" s="29"/>
+      <c r="E53" s="30"/>
+      <c r="F53" s="31"/>
     </row>
     <row r="54" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
+      <c r="A54" s="32"/>
+      <c r="B54" s="41"/>
       <c r="C54" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="19"/>
+      <c r="D54" s="29"/>
+      <c r="E54" s="30"/>
+      <c r="F54" s="31"/>
     </row>
     <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
+      <c r="A55" s="32"/>
+      <c r="B55" s="41"/>
       <c r="C55" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="19"/>
+      <c r="D55" s="29"/>
+      <c r="E55" s="30"/>
+      <c r="F55" s="31"/>
     </row>
     <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="20"/>
-      <c r="B56" s="23"/>
+      <c r="A56" s="32"/>
+      <c r="B56" s="41"/>
       <c r="C56" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="19"/>
+      <c r="D56" s="29"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="31"/>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
+      <c r="A57" s="32"/>
+      <c r="B57" s="41"/>
       <c r="C57" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="19"/>
+      <c r="D57" s="29"/>
+      <c r="E57" s="30"/>
+      <c r="F57" s="31"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
+      <c r="A58" s="32"/>
+      <c r="B58" s="41"/>
       <c r="C58" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="19"/>
+      <c r="D58" s="29"/>
+      <c r="E58" s="30"/>
+      <c r="F58" s="31"/>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
+      <c r="A59" s="33"/>
+      <c r="B59" s="42"/>
       <c r="C59" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="19"/>
+      <c r="D59" s="29"/>
+      <c r="E59" s="30"/>
+      <c r="F59" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="A14:A50"/>
-    <mergeCell ref="B14:B50"/>
-    <mergeCell ref="C14:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="D58:F58"/>
     <mergeCell ref="D59:F59"/>
     <mergeCell ref="B51:C51"/>
     <mergeCell ref="D51:F51"/>
@@ -6604,14 +6643,37 @@
     <mergeCell ref="D55:F55"/>
     <mergeCell ref="D56:F56"/>
     <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A14:A50"/>
+    <mergeCell ref="B14:B50"/>
+    <mergeCell ref="C14:C45"/>
+    <mergeCell ref="C46:C49"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E32 E34:E45">
-    <cfRule type="expression" dxfId="6" priority="2">
+    <cfRule type="expression" dxfId="7" priority="2">
       <formula>E14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E33">
-    <cfRule type="expression" dxfId="5" priority="1">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>E33&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6633,8 +6695,8 @@
   </sheetPr>
   <dimension ref="A4:G47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6652,126 +6714,126 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18" t="str" cm="1">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">MID(CELL("filename",D4),FIND("]",CELL("filename",D4))+1,31)</f>
         <v>UC-02</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="18" t="s">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="130.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="19"/>
-    </row>
-    <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="19"/>
-    </row>
-    <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="18" t="s">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="18" t="s">
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="19"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -6780,378 +6842,408 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20">
+      <c r="A14" s="32">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="5" t="s">
         <v>84</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="E16" s="41"/>
+      <c r="E16" s="26"/>
       <c r="F16" s="5" t="s">
         <v>87</v>
       </c>
       <c r="G16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="6"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="32" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="E18" s="41"/>
+      <c r="E18" s="26"/>
       <c r="F18" s="5" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="32" t="s">
+      <c r="E19" s="26"/>
+      <c r="F19" s="18" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="41"/>
+      <c r="E20" s="26"/>
       <c r="F20" s="5" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E22" s="41"/>
+      <c r="E22" s="26"/>
       <c r="F22" s="5" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="32" t="s">
+      <c r="E23" s="26"/>
+      <c r="F23" s="18" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="33" t="s">
+      <c r="E24" s="26"/>
+      <c r="F24" s="19" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="E25" s="41"/>
-      <c r="F25" s="32" t="s">
+      <c r="E25" s="26"/>
+      <c r="F25" s="18" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="E26" s="41"/>
-      <c r="F26" s="32" t="s">
+      <c r="E26" s="26"/>
+      <c r="F26" s="18" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="E27" s="26"/>
+      <c r="F27" s="18" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="18" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="36"/>
+      <c r="D29" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="E27" s="41"/>
-      <c r="F27" s="33" t="s">
+      <c r="E29" s="26"/>
+      <c r="F29" s="19" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="6" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="36"/>
+      <c r="D30" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="E28" s="41"/>
-      <c r="F28" s="33" t="s">
+      <c r="E30" s="26"/>
+      <c r="F30" s="19" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="6" t="s">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="36"/>
+      <c r="D31" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="41" t="s">
+      <c r="E31" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="F29" s="32" t="s">
+      <c r="F31" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="6"/>
-      <c r="E30" s="41"/>
-      <c r="F30" s="32"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="6"/>
-      <c r="E31" s="41"/>
-      <c r="F31" s="32"/>
-    </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="36"/>
       <c r="D32" s="6"/>
-      <c r="E32" s="41"/>
+      <c r="E32" s="26"/>
       <c r="F32" s="5"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="30"/>
+      <c r="A33" s="32"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="37"/>
       <c r="D33" s="6"/>
-      <c r="E33" s="41"/>
+      <c r="E33" s="26"/>
       <c r="F33" s="7"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="28" t="s">
+      <c r="A34" s="32"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="17" t="s">
         <v>55</v>
       </c>
-      <c r="E34" s="37"/>
+      <c r="E34" s="22"/>
       <c r="F34" s="2" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
+      <c r="A35" s="32"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="36"/>
       <c r="D35" s="6"/>
-      <c r="E35" s="38"/>
+      <c r="E35" s="23"/>
       <c r="F35" s="5"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="36"/>
       <c r="D36" s="6"/>
-      <c r="E36" s="38"/>
+      <c r="E36" s="23"/>
       <c r="F36" s="5"/>
     </row>
     <row r="37" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="30"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="37"/>
       <c r="D37" s="8"/>
-      <c r="E37" s="39"/>
+      <c r="E37" s="24"/>
       <c r="F37" s="7"/>
     </row>
     <row r="38" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="21"/>
-      <c r="B38" s="27"/>
+      <c r="A38" s="33"/>
+      <c r="B38" s="35"/>
       <c r="C38" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D38" s="4"/>
-      <c r="E38" s="35"/>
-      <c r="F38" s="42"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="27"/>
     </row>
     <row r="39" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A39" s="12">
         <v>11</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C39" s="17"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="19"/>
+      <c r="C39" s="39"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="20">
+      <c r="A40" s="32">
         <v>12</v>
       </c>
-      <c r="B40" s="22" t="s">
+      <c r="B40" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C40" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="19"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="19"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="23"/>
+      <c r="A42" s="32"/>
+      <c r="B42" s="41"/>
       <c r="C42" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="19"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
     </row>
     <row r="43" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="23"/>
+      <c r="A43" s="32"/>
+      <c r="B43" s="41"/>
       <c r="C43" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D43" s="18"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="19"/>
+      <c r="D43" s="29"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="31"/>
     </row>
     <row r="44" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="23"/>
+      <c r="A44" s="32"/>
+      <c r="B44" s="41"/>
       <c r="C44" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="34"/>
-      <c r="F44" s="19"/>
+      <c r="D44" s="29"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="31"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="23"/>
+      <c r="A45" s="32"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D45" s="18"/>
-      <c r="E45" s="34"/>
-      <c r="F45" s="19"/>
+      <c r="D45" s="29"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="31"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="23"/>
+      <c r="A46" s="32"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="19"/>
+      <c r="D46" s="29"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="31"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="21"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="33"/>
+      <c r="B47" s="42"/>
       <c r="C47" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D47" s="18"/>
-      <c r="E47" s="34"/>
-      <c r="F47" s="19"/>
+      <c r="D47" s="29"/>
+      <c r="E47" s="30"/>
+      <c r="F47" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A14:A38"/>
+    <mergeCell ref="B14:B38"/>
+    <mergeCell ref="C14:C33"/>
+    <mergeCell ref="C34:C37"/>
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="A40:A47"/>
     <mergeCell ref="B40:B47"/>
     <mergeCell ref="D40:F40"/>
@@ -7162,39 +7254,20 @@
     <mergeCell ref="D45:F45"/>
     <mergeCell ref="D46:F46"/>
     <mergeCell ref="D47:F47"/>
-    <mergeCell ref="A14:A38"/>
-    <mergeCell ref="B14:B38"/>
-    <mergeCell ref="C14:C33"/>
-    <mergeCell ref="C34:C37"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
-  <conditionalFormatting sqref="E14:E19 E21:E33">
-    <cfRule type="expression" dxfId="4" priority="3">
+  <conditionalFormatting sqref="E14:E19 E21:E26 E29:E33">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>E14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E20">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>E20&lt;&gt;""</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E27:E28">
     <cfRule type="expression" dxfId="3" priority="1">
-      <formula>E20&lt;&gt;""</formula>
+      <formula>E27&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
@@ -7234,126 +7307,126 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18" t="str" cm="1">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">MID(CELL("filename",D4),FIND("]",CELL("filename",D4))+1,31)</f>
         <v>UC-03</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="81" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="18" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="34"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="19"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
+        <v>100</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
     </row>
     <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="19"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
     </row>
     <row r="10" spans="1:7" ht="33.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="18" t="s">
-        <v>102</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -7362,291 +7435,315 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20">
+      <c r="A14" s="32">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="40"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="2" t="s">
         <v>83</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" ht="27" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="6"/>
-      <c r="E16" s="41"/>
-      <c r="F16" s="32"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="18"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
       <c r="D17" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="41"/>
+      <c r="E17" s="26"/>
       <c r="F17" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
       <c r="D18" s="6"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="32"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="18"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="33"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="19"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
       <c r="D20" s="6"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="32"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="18"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="32"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="18"/>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
       <c r="D22" s="6"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="19"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36"/>
       <c r="D23" s="6"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="33"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="19"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="32"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="18"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="32"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="18"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="36"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="32"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="18"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
+      <c r="A27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="6"/>
-      <c r="E27" s="41"/>
+      <c r="E27" s="26"/>
       <c r="F27" s="5"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="30"/>
+      <c r="A28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="37"/>
       <c r="D28" s="6"/>
-      <c r="E28" s="41"/>
+      <c r="E28" s="26"/>
       <c r="F28" s="7"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="28" t="s">
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="17" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="37"/>
+      <c r="E29" s="22"/>
       <c r="F29" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
+      <c r="A30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="36"/>
       <c r="D30" s="6"/>
-      <c r="E30" s="38"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="5"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
+      <c r="A31" s="32"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="36"/>
       <c r="D31" s="6"/>
-      <c r="E31" s="38"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="5"/>
     </row>
     <row r="32" spans="1:6" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="30"/>
+      <c r="A32" s="32"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="37"/>
       <c r="D32" s="8"/>
-      <c r="E32" s="39"/>
+      <c r="E32" s="24"/>
       <c r="F32" s="7"/>
     </row>
     <row r="33" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="21"/>
-      <c r="B33" s="27"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="35"/>
       <c r="C33" s="15" t="s">
         <v>12</v>
       </c>
       <c r="D33" s="4"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="42"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="27"/>
     </row>
     <row r="34" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="12">
         <v>11</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="C34" s="17"/>
-      <c r="D34" s="18"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="19"/>
+      <c r="C34" s="39"/>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="20">
+      <c r="A35" s="32">
         <v>12</v>
       </c>
-      <c r="B35" s="22" t="s">
+      <c r="B35" s="40" t="s">
         <v>14</v>
       </c>
       <c r="C35" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="D35" s="18"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="19"/>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
     </row>
     <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="23"/>
+      <c r="A36" s="32"/>
+      <c r="B36" s="41"/>
       <c r="C36" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="19"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
     </row>
     <row r="37" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="23"/>
+      <c r="A37" s="32"/>
+      <c r="B37" s="41"/>
       <c r="C37" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D37" s="18"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="19"/>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="23"/>
+      <c r="A38" s="32"/>
+      <c r="B38" s="41"/>
       <c r="C38" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="19"/>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="23"/>
+      <c r="A39" s="32"/>
+      <c r="B39" s="41"/>
       <c r="C39" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="D39" s="18"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="19"/>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="23"/>
+      <c r="A40" s="32"/>
+      <c r="B40" s="41"/>
       <c r="C40" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="19"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="23"/>
+      <c r="A41" s="32"/>
+      <c r="B41" s="41"/>
       <c r="C41" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="18"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="19"/>
+      <c r="D41" s="29"/>
+      <c r="E41" s="30"/>
+      <c r="F41" s="31"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="21"/>
-      <c r="B42" s="24"/>
+      <c r="A42" s="33"/>
+      <c r="B42" s="42"/>
       <c r="C42" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="19"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="A14:A33"/>
+    <mergeCell ref="B14:B33"/>
+    <mergeCell ref="C14:C28"/>
+    <mergeCell ref="C29:C32"/>
+    <mergeCell ref="B34:C34"/>
     <mergeCell ref="A35:A42"/>
     <mergeCell ref="B35:B42"/>
     <mergeCell ref="D35:F35"/>
@@ -7657,30 +7754,6 @@
     <mergeCell ref="D40:F40"/>
     <mergeCell ref="D41:F41"/>
     <mergeCell ref="D42:F42"/>
-    <mergeCell ref="A14:A33"/>
-    <mergeCell ref="B14:B33"/>
-    <mergeCell ref="C14:C28"/>
-    <mergeCell ref="C29:C32"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
   </mergeCells>
   <conditionalFormatting sqref="E14:E28">
     <cfRule type="expression" dxfId="2" priority="2">
@@ -7703,10 +7776,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A4:G59"/>
+  <dimension ref="A4:G40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6:F6"/>
+      <selection activeCell="D12" sqref="D12:F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -7724,124 +7797,126 @@
       <c r="A4" s="12">
         <v>1</v>
       </c>
-      <c r="B4" s="25" t="s">
+      <c r="B4" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="25"/>
-      <c r="D4" s="18" t="str" cm="1">
+      <c r="C4" s="28"/>
+      <c r="D4" s="29" t="str" cm="1">
         <f t="array" aca="1" ref="D4" ca="1">MID(CELL("filename",D4),FIND("]",CELL("filename",D4))+1,31)</f>
         <v>UC-04</v>
       </c>
-      <c r="E4" s="34"/>
-      <c r="F4" s="19"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="31"/>
     </row>
     <row r="5" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="12">
         <v>2</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="18" t="s">
-        <v>107</v>
-      </c>
-      <c r="E5" s="34"/>
-      <c r="F5" s="19"/>
-    </row>
-    <row r="6" spans="1:7" ht="156" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C5" s="28"/>
+      <c r="D5" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5" s="30"/>
+      <c r="F5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" ht="138.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="12">
         <v>3</v>
       </c>
-      <c r="B6" s="25" t="s">
+      <c r="B6" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="25"/>
-      <c r="D6" s="18"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="19"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="E6" s="30"/>
+      <c r="F6" s="31"/>
     </row>
     <row r="7" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="12">
         <v>4</v>
       </c>
-      <c r="B7" s="25" t="s">
+      <c r="B7" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="25"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="19"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="31"/>
     </row>
     <row r="8" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="12">
         <v>5</v>
       </c>
-      <c r="B8" s="25" t="s">
+      <c r="B8" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="25"/>
-      <c r="D8" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="19"/>
-    </row>
-    <row r="9" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C8" s="28"/>
+      <c r="D8" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
+    </row>
+    <row r="9" spans="1:7" ht="22.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="12">
         <v>6</v>
       </c>
-      <c r="B9" s="25" t="s">
+      <c r="B9" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="25"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="34"/>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C9" s="28"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
+    </row>
+    <row r="10" spans="1:7" ht="60.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="12">
         <v>7</v>
       </c>
-      <c r="B10" s="25" t="s">
+      <c r="B10" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="25"/>
-      <c r="D10" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="34"/>
-      <c r="F10" s="19"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
     </row>
     <row r="11" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="12">
         <v>8</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="B11" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="25"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="31"/>
     </row>
     <row r="12" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="12">
         <v>9</v>
       </c>
-      <c r="B12" s="25" t="s">
+      <c r="B12" s="28" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="25"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="34"/>
-      <c r="F12" s="19"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
     </row>
     <row r="13" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="13"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
-      <c r="D13" s="36" t="s">
+      <c r="D13" s="21" t="s">
         <v>64</v>
       </c>
       <c r="E13" s="9" t="s">
@@ -7850,557 +7925,354 @@
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:7" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="20">
+      <c r="A14" s="32">
         <v>10</v>
       </c>
-      <c r="B14" s="26" t="s">
+      <c r="B14" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="31" t="s">
+      <c r="D14" s="17" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E14" s="25" t="s">
         <v>66</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>25</v>
+        <v>114</v>
       </c>
       <c r="G14" s="3"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A15" s="20"/>
-      <c r="B15" s="26"/>
-      <c r="C15" s="29"/>
+      <c r="A15" s="32"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="E15" s="41"/>
+      <c r="E15" s="26"/>
       <c r="F15" s="5" t="s">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="G15" s="3"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A16" s="20"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E16" s="41"/>
-      <c r="F16" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="G16" s="3"/>
+      <c r="A16" s="32"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="18" t="s">
+        <v>116</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A17" s="20"/>
-      <c r="B17" s="26"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="32" t="s">
-        <v>26</v>
+      <c r="A17" s="32"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="E17" s="26"/>
+      <c r="F17" s="5" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="20"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="32" t="s">
-        <v>27</v>
+      <c r="A18" s="32"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E18" s="26"/>
+      <c r="F18" s="18" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="20"/>
-      <c r="B19" s="26"/>
-      <c r="C19" s="29"/>
+      <c r="A19" s="32"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="36"/>
       <c r="D19" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E19" s="41"/>
-      <c r="F19" s="5" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="19" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="20"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="6"/>
-      <c r="E20" s="41"/>
-      <c r="F20" s="32" t="s">
-        <v>34</v>
+      <c r="A20" s="32"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="E20" s="26"/>
+      <c r="F20" s="18" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A21" s="20"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="29"/>
+      <c r="A21" s="32"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="36"/>
       <c r="D21" s="6"/>
-      <c r="E21" s="41"/>
-      <c r="F21" s="32" t="s">
-        <v>35</v>
+      <c r="E21" s="26"/>
+      <c r="F21" s="19" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="20"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="32" t="s">
-        <v>36</v>
+      <c r="A22" s="32"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="E22" s="26"/>
+      <c r="F22" s="19" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="20"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="6"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="32" t="s">
-        <v>37</v>
+      <c r="A23" s="32"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="E23" s="26"/>
+      <c r="F23" s="19" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A24" s="20"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="29"/>
+      <c r="A24" s="32"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="36"/>
       <c r="D24" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="5" t="s">
-        <v>68</v>
+        <v>51</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="20"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="29"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="36"/>
       <c r="D25" s="6"/>
-      <c r="E25" s="41"/>
-      <c r="F25" s="32" t="s">
-        <v>41</v>
-      </c>
+      <c r="E25" s="26"/>
+      <c r="F25" s="5"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="20"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="29"/>
+      <c r="A26" s="32"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="37"/>
       <c r="D26" s="6"/>
-      <c r="E26" s="41"/>
-      <c r="F26" s="32" t="s">
-        <v>42</v>
-      </c>
+      <c r="E26" s="26"/>
+      <c r="F26" s="7"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="20"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="6"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="32" t="s">
-        <v>43</v>
+      <c r="A27" s="32"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="D27" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E27" s="22"/>
+      <c r="F27" s="2" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A28" s="20"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="41"/>
-      <c r="F28" s="32" t="s">
-        <v>44</v>
+      <c r="A28" s="32"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" s="23"/>
+      <c r="F28" s="5" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A29" s="20"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="29"/>
+      <c r="A29" s="32"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="36"/>
       <c r="D29" s="6"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="32" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A30" s="20"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="5" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A31" s="20"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="E31" s="41"/>
-      <c r="F31" s="32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A32" s="20"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="41"/>
-      <c r="F32" s="5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A33" s="20"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="41"/>
-      <c r="F33" s="32" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A34" s="20"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="29"/>
-      <c r="D34" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="41"/>
-      <c r="F34" s="32" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A35" s="20"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="29"/>
-      <c r="D35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="E35" s="41"/>
-      <c r="F35" s="33" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A36" s="20"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="29"/>
-      <c r="D36" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="32" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A37" s="20"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="6"/>
-      <c r="E37" s="41"/>
-      <c r="F37" s="33" t="s">
-        <v>60</v>
-      </c>
+      <c r="E29" s="23"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="32"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="37"/>
+      <c r="D30" s="8"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="7"/>
+    </row>
+    <row r="31" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="33"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="20"/>
+      <c r="F31" s="27"/>
+    </row>
+    <row r="32" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="12">
+        <v>11</v>
+      </c>
+      <c r="B32" s="39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="39"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="31"/>
+    </row>
+    <row r="33" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="32">
+        <v>12</v>
+      </c>
+      <c r="B33" s="40" t="s">
+        <v>14</v>
+      </c>
+      <c r="C33" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="31"/>
+    </row>
+    <row r="34" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="32"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="30"/>
+      <c r="F34" s="31"/>
+    </row>
+    <row r="35" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="32"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="30"/>
+      <c r="F35" s="31"/>
+    </row>
+    <row r="36" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="32"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="31"/>
+    </row>
+    <row r="37" spans="1:6" ht="24" x14ac:dyDescent="0.15">
+      <c r="A37" s="32"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="30"/>
+      <c r="F37" s="31"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A38" s="20"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="29"/>
-      <c r="D38" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="32" t="s">
-        <v>53</v>
-      </c>
+      <c r="A38" s="32"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="30"/>
+      <c r="F38" s="31"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A39" s="20"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="29"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="41"/>
-      <c r="F39" s="33" t="s">
-        <v>69</v>
-      </c>
+      <c r="A39" s="32"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="31"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A40" s="20"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="29"/>
-      <c r="D40" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="41"/>
-      <c r="F40" s="33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A41" s="20"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="E41" s="41"/>
-      <c r="F41" s="33" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A42" s="20"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="29"/>
-      <c r="D42" s="6" t="s">
-        <v>63</v>
-      </c>
-      <c r="E42" s="41"/>
-      <c r="F42" s="33" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A43" s="20"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="29"/>
-      <c r="D43" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="E43" s="41" t="s">
-        <v>66</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A44" s="20"/>
-      <c r="B44" s="26"/>
-      <c r="C44" s="29"/>
-      <c r="D44" s="6"/>
-      <c r="E44" s="41"/>
-      <c r="F44" s="5"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A45" s="20"/>
-      <c r="B45" s="26"/>
-      <c r="C45" s="30"/>
-      <c r="D45" s="6"/>
-      <c r="E45" s="41"/>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A46" s="20"/>
-      <c r="B46" s="26"/>
-      <c r="C46" s="28" t="s">
-        <v>11</v>
-      </c>
-      <c r="D46" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E46" s="37"/>
-      <c r="F46" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A47" s="20"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="6"/>
-      <c r="E47" s="38"/>
-      <c r="F47" s="5"/>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A48" s="20"/>
-      <c r="B48" s="26"/>
-      <c r="C48" s="29"/>
-      <c r="D48" s="6"/>
-      <c r="E48" s="38"/>
-      <c r="F48" s="5"/>
-    </row>
-    <row r="49" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="20"/>
-      <c r="B49" s="26"/>
-      <c r="C49" s="30"/>
-      <c r="D49" s="8"/>
-      <c r="E49" s="39"/>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="1:6" ht="30" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="21"/>
-      <c r="B50" s="27"/>
-      <c r="C50" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="35"/>
-      <c r="F50" s="42" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="12">
-        <v>11</v>
-      </c>
-      <c r="B51" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="18"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="19"/>
-    </row>
-    <row r="52" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="20">
-        <v>12</v>
-      </c>
-      <c r="B52" s="22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C52" s="15" t="s">
-        <v>15</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="19"/>
-    </row>
-    <row r="53" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="20"/>
-      <c r="B53" s="23"/>
-      <c r="C53" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D53" s="18"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="19"/>
-    </row>
-    <row r="54" spans="1:6" ht="40.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="20"/>
-      <c r="B54" s="23"/>
-      <c r="C54" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="19"/>
-    </row>
-    <row r="55" spans="1:6" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="20"/>
-      <c r="B55" s="23"/>
-      <c r="C55" s="15" t="s">
-        <v>18</v>
-      </c>
-      <c r="D55" s="18"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="19"/>
-    </row>
-    <row r="56" spans="1:6" ht="24" x14ac:dyDescent="0.15">
-      <c r="A56" s="20"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="19"/>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A57" s="20"/>
-      <c r="B57" s="23"/>
-      <c r="C57" s="15" t="s">
-        <v>20</v>
-      </c>
-      <c r="D57" s="18"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="19"/>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A58" s="20"/>
-      <c r="B58" s="23"/>
-      <c r="C58" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="19"/>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A59" s="21"/>
-      <c r="B59" s="24"/>
-      <c r="C59" s="15" t="s">
+      <c r="A40" s="33"/>
+      <c r="B40" s="42"/>
+      <c r="C40" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D59" s="18"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="19"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
+      <c r="F40" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="A52:A59"/>
-    <mergeCell ref="B52:B59"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D54:F54"/>
-    <mergeCell ref="D55:F55"/>
-    <mergeCell ref="D56:F56"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="A14:A50"/>
-    <mergeCell ref="B14:B50"/>
-    <mergeCell ref="C14:C45"/>
-    <mergeCell ref="C46:C49"/>
-    <mergeCell ref="B51:C51"/>
-    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:F4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="B6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="B10:C10"/>
     <mergeCell ref="D10:F10"/>
     <mergeCell ref="B11:C11"/>
     <mergeCell ref="D11:F11"/>
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="D12:F12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:F4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="B6:C6"/>
-    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="A14:A31"/>
+    <mergeCell ref="B14:B31"/>
+    <mergeCell ref="C14:C26"/>
+    <mergeCell ref="C27:C30"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="A33:A40"/>
+    <mergeCell ref="B33:B40"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
   </mergeCells>
-  <conditionalFormatting sqref="E14:E32 E34:E45">
-    <cfRule type="expression" dxfId="1" priority="2">
+  <conditionalFormatting sqref="E14:E15 E17:E26">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>E14&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E33">
+  <conditionalFormatting sqref="E16">
     <cfRule type="expression" dxfId="0" priority="1">
-      <formula>E33&lt;&gt;""</formula>
+      <formula>E16&lt;&gt;""</formula>
     </cfRule>
   </conditionalFormatting>
   <printOptions horizontalCentered="1"/>
